--- a/sem1/T_СО-ИП-21-1.xlsx
+++ b/sem1/T_СО-ИП-21-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/information-systems-testing/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED2F264-80DF-0D47-91AE-727268A0412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037C1184-C632-CE47-BC69-8F7367041B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
     <sheet name="Успеваемость" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Калашников Игорь Юрьевич</t>
   </si>
   <si>
-    <t>Калмаков Алексей Евгеньевич</t>
-  </si>
-  <si>
     <t>Карпенко Анна Сергеевна</t>
   </si>
   <si>
@@ -132,6 +129,18 @@
   </si>
   <si>
     <t>Лаб 3</t>
+  </si>
+  <si>
+    <t>Лаб 4</t>
+  </si>
+  <si>
+    <t>Роттэ Артем</t>
+  </si>
+  <si>
+    <t>Черепков Ярослав</t>
+  </si>
+  <si>
+    <t>Лаб 5</t>
   </si>
 </sst>
 </file>
@@ -208,7 +217,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -518,19 +558,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="6"/>
+    <col min="3" max="10" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="6.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -561,14 +604,26 @@
       <c r="I1" s="4">
         <v>45194</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="J1" s="4">
+        <v>45195</v>
+      </c>
+      <c r="K1" s="4">
+        <v>45202</v>
+      </c>
+      <c r="L1" s="4">
+        <v>45208</v>
+      </c>
+      <c r="M1" s="4">
+        <v>45209</v>
+      </c>
+      <c r="N1" s="4">
+        <v>45211</v>
+      </c>
+      <c r="O1" s="4">
+        <v>45216</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -578,34 +633,46 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -615,34 +682,46 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -652,34 +731,46 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -689,34 +780,46 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -726,34 +829,46 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -763,34 +878,46 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -800,34 +927,46 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -837,34 +976,46 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -874,34 +1025,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -911,158 +1074,206 @@
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>27</v>
@@ -1077,208 +1288,280 @@
         <v>27</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="J19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>27</v>
@@ -1296,149 +1579,311 @@
         <v>26</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="J24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N26">
+    <sortCondition ref="B5:B26"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:Q26">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:XFD26">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62602E8-28E8-294E-A69D-F0934538C6EC}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="6"/>
+    <col min="4" max="9" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1449,18 +1894,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -1470,14 +1919,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1488,11 +1939,11 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -1503,11 +1954,11 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -1517,18 +1968,20 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -1537,13 +1990,21 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -1554,11 +2015,11 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -1568,14 +2029,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -1586,13 +2049,13 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1602,18 +2065,22 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -1623,18 +2090,18 @@
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1644,14 +2111,18 @@
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1661,16 +2132,16 @@
         <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -1679,15 +2150,13 @@
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1696,13 +2165,17 @@
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1712,14 +2185,14 @@
         <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -1729,14 +2202,16 @@
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -1745,17 +2220,13 @@
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -1766,11 +2237,11 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -1779,116 +2250,140 @@
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
+    <sortCondition ref="B3:B26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>